--- a/posesiones/1463356.xlsx
+++ b/posesiones/1463356.xlsx
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>17</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>21</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>19</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>20</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>12</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>12</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>10</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>19</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>10</v>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>18</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>22</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R32">
         <v>16</v>
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R33">
         <v>22</v>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R34">
         <v>22</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R37">
         <v>30</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R39">
         <v>4</v>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R41">
         <v>4</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R43">
         <v>4</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R45">
         <v>17</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R47">
         <v>4</v>
@@ -4133,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R48">
         <v>23</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R50">
         <v>17</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R52">
         <v>6</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R57">
         <v>8</v>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R60">
         <v>16</v>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R61">
         <v>7</v>
@@ -4833,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R62">
         <v>18</v>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R63">
         <v>6</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5083,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R67">
         <v>16</v>
@@ -5136,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R68">
         <v>17</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R80">
         <v>25</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R82">
         <v>14</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R84">
         <v>18</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R86">
         <v>16</v>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R98">
         <v>11</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6826,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R103">
         <v>18</v>
@@ -6879,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R104">
         <v>22</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6979,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R106">
         <v>5</v>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>8</v>
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7264,10 +7264,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7508,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R117">
         <v>17</v>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7655,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R120">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7758,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R122">
         <v>20</v>
@@ -7808,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R124">
         <v>19</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R126">
         <v>15</v>
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R131">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8446,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R136">
         <v>8</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8643,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R140">
         <v>19</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8743,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R142">
         <v>5</v>
@@ -8796,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R143">
         <v>9</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8993,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R147">
         <v>17</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R149">
         <v>21</v>
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9196,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R151">
         <v>11</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R155">
         <v>23</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9490,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R157">
         <v>18</v>
@@ -9540,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9778,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R163">
         <v>18</v>
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R164">
         <v>18</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9934,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R166">
         <v>10</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10037,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R168">
         <v>17</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10237,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R172">
         <v>7</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10478,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R177">
         <v>0</v>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R179">
         <v>21</v>
@@ -10634,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10684,7 +10684,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R181">
         <v>19</v>
@@ -10737,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R182">
         <v>7</v>
@@ -10790,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R183">
         <v>16</v>
@@ -10843,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R184">
         <v>9</v>
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10940,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11128,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R190">
         <v>3</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11228,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R192">
         <v>8</v>
@@ -11281,7 +11281,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R193">
         <v>13</v>
@@ -11331,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11431,7 +11431,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R196">
         <v>23</v>
@@ -11484,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R197">
         <v>18</v>
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11584,7 +11584,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R199">
         <v>10</v>
@@ -11637,7 +11637,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R200">
         <v>9</v>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11787,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R203">
         <v>19</v>
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11937,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R206">
         <v>25</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12040,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R208">
         <v>2</v>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12134,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12181,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12278,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R213">
         <v>37</v>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R216">
         <v>23</v>
@@ -12478,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R217">
         <v>24</v>
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12625,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12725,7 +12725,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R222">
         <v>23</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R224">
         <v>11</v>
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R226">
         <v>4</v>
@@ -12972,10 +12972,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q227">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13110,10 +13110,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q230">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R231">
         <v>11</v>
@@ -13216,7 +13216,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R232">
         <v>18</v>
@@ -13266,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R234">
         <v>22</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13416,7 +13416,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R236">
         <v>15</v>
@@ -13469,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13519,7 +13519,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R238">
         <v>11</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13619,7 +13619,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R240">
         <v>22</v>
@@ -13672,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13722,7 +13722,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R242">
         <v>10</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13819,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13916,7 +13916,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R246">
         <v>0</v>
@@ -13969,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R247">
         <v>15</v>
@@ -14022,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14072,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R249">
         <v>5</v>
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14357,7 +14357,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R255">
         <v>0</v>
@@ -14410,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14460,7 +14460,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R257">
         <v>14</v>
@@ -14513,7 +14513,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R258">
         <v>14</v>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14616,7 +14616,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R260">
         <v>11</v>
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R261">
         <v>18</v>
@@ -14722,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14772,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R263">
         <v>11</v>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14875,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R265">
         <v>7</v>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15072,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15357,7 +15357,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R275">
         <v>21</v>
@@ -15407,7 +15407,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15642,7 +15642,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15692,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R282">
         <v>23</v>
@@ -15742,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15836,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15886,7 +15886,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15933,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15980,7 +15980,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16030,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16080,7 +16080,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R290">
         <v>43</v>
@@ -16133,7 +16133,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16183,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R292">
         <v>4</v>
@@ -16233,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16283,7 +16283,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R294">
         <v>4</v>
@@ -16336,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16383,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16430,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16480,7 +16480,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R298">
         <v>15</v>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R300">
         <v>12</v>
@@ -16633,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16683,7 +16683,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R302">
         <v>8</v>
@@ -16733,7 +16733,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16783,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R304">
         <v>6</v>
@@ -16833,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16883,7 +16883,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R306">
         <v>23</v>
@@ -16933,7 +16933,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R307">
         <v>27</v>
@@ -16983,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17030,7 +17030,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17174,7 +17174,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R312">
         <v>13</v>
@@ -17227,7 +17227,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R313">
         <v>27</v>
@@ -17280,7 +17280,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R314">
         <v>6</v>
@@ -17330,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17377,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17424,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17471,7 +17471,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17518,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17565,7 +17565,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17706,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17803,7 +17803,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R325">
         <v>27</v>
@@ -17856,7 +17856,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17906,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R327">
         <v>5</v>
@@ -17956,7 +17956,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18006,7 +18006,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R329">
         <v>10</v>
@@ -18059,7 +18059,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18106,7 +18106,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18153,7 +18153,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18203,7 +18203,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R333">
         <v>13</v>
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18306,7 +18306,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R335">
         <v>7</v>
@@ -18359,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18409,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R337">
         <v>17</v>
@@ -18462,7 +18462,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18603,7 +18603,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18650,7 +18650,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18700,7 +18700,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R343">
         <v>16</v>
@@ -18753,7 +18753,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R344">
         <v>24</v>
@@ -18803,7 +18803,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18853,7 +18853,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R346">
         <v>26</v>
@@ -18903,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19047,7 +19047,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R350">
         <v>0</v>
@@ -19097,7 +19097,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19144,7 +19144,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19194,7 +19194,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R353">
         <v>12</v>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19285,10 +19285,10 @@
         <v>1</v>
       </c>
       <c r="P355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q355">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19335,7 +19335,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19382,7 +19382,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19423,10 +19423,10 @@
         <v>1</v>
       </c>
       <c r="P358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q358">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19476,7 +19476,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R359">
         <v>18</v>
@@ -19526,7 +19526,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R361">
         <v>18</v>
@@ -19626,7 +19626,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19676,7 +19676,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R363">
         <v>7</v>
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R365">
         <v>13</v>
@@ -19832,7 +19832,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R366">
         <v>19</v>
@@ -19885,7 +19885,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19935,7 +19935,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R368">
         <v>10</v>
@@ -19985,7 +19985,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20032,7 +20032,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20079,7 +20079,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R371">
         <v>28</v>
@@ -20132,7 +20132,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R372">
         <v>23</v>
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20232,7 +20232,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R374">
         <v>17</v>
@@ -20282,7 +20282,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20332,7 +20332,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R376">
         <v>12</v>
@@ -20385,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20435,7 +20435,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R378">
         <v>6</v>
@@ -20488,7 +20488,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R379">
         <v>18</v>
@@ -20541,7 +20541,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R380">
         <v>22</v>
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20638,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20685,7 +20685,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20735,7 +20735,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R384">
         <v>21</v>
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20829,7 +20829,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20879,7 +20879,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R387">
         <v>21</v>
@@ -20929,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20976,7 +20976,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21026,7 +21026,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R390">
         <v>0</v>
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R392">
         <v>14</v>
@@ -21179,7 +21179,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R393">
         <v>12</v>
@@ -21229,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21276,7 +21276,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21326,7 +21326,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R396">
         <v>10</v>
@@ -21379,7 +21379,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R397">
         <v>20</v>
@@ -21432,7 +21432,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R398">
         <v>15</v>
@@ -21482,7 +21482,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21532,7 +21532,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R400">
         <v>12</v>
@@ -21585,7 +21585,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21635,7 +21635,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R402">
         <v>23</v>
@@ -21685,7 +21685,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21729,7 +21729,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21776,7 +21776,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21823,7 +21823,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21870,7 +21870,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21967,7 +21967,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R409">
         <v>12</v>
@@ -22020,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22070,7 +22070,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R411">
         <v>15</v>
@@ -22120,7 +22120,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22170,7 +22170,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22220,7 +22220,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R414">
         <v>10</v>
@@ -22273,7 +22273,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22323,7 +22323,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R416">
         <v>12</v>
@@ -22373,7 +22373,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22467,7 +22467,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22514,7 +22514,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22608,7 +22608,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22658,7 +22658,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R423">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R424">
         <v>18</v>
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22808,7 +22808,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22855,7 +22855,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22902,7 +22902,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22952,7 +22952,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R429">
         <v>17</v>
@@ -23002,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23099,7 +23099,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R432">
         <v>31</v>
@@ -23149,7 +23149,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23243,7 +23243,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23290,7 +23290,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23340,7 +23340,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R437">
         <v>17</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23534,7 +23534,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23581,7 +23581,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23628,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23675,7 +23675,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23725,7 +23725,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R445">
         <v>23</v>
@@ -23772,7 +23772,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23822,7 +23822,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R447">
         <v>15</v>
@@ -23872,7 +23872,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23922,7 +23922,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R449">
         <v>11</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24163,7 +24163,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24213,7 +24213,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R455">
         <v>5</v>
@@ -24266,7 +24266,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R456">
         <v>6</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24413,7 +24413,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24510,7 +24510,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R461">
         <v>9</v>
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24704,7 +24704,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24754,7 +24754,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R466">
         <v>6</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24948,7 +24948,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R470">
         <v>7</v>
@@ -24995,7 +24995,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25045,7 +25045,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R472">
         <v>4</v>
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25195,7 +25195,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25245,7 +25245,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R476">
         <v>7</v>
@@ -25298,7 +25298,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R477">
         <v>5</v>
@@ -25354,7 +25354,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R478">
         <v>3</v>
@@ -25398,10 +25398,10 @@
         <v>1</v>
       </c>
       <c r="P479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q479">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
